--- a/HW11/DSPgraphs.xlsx
+++ b/HW11/DSPgraphs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshw\Dropbox\Documents\School\Senior Year\ME433\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshw\Dropbox\Documents\Github\JoshWerblin_ME433_2019\HW11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D01497-2D18-419B-AD8B-84ECCE72FF89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7085417-1D6B-4A39-8EEB-A7D637D4025E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{B24E4688-E54D-49A6-B620-525B57C36612}"/>
   </bookViews>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2BABEC-27F3-4FDD-B270-78F767E48E92}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
